--- a/CBP專案/CBP基本資料_規劃處_策略規畫科v1.xlsx
+++ b/CBP專案/CBP基本資料_規劃處_策略規畫科v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\chtData\Data\chti\資訊系統資料\CBP\帳單或CN範本\帳單\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apple\Documents\GitHub\cbp-sys-api\CBP專案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146A42E0-5CEC-48D3-9980-A34404D50643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0AAC2A-D628-4DCD-A867-1808C8FE2EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="2220" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CBP作業" sheetId="3" state="hidden" r:id="rId1"/>
@@ -32,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -76,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="169">
   <si>
     <t>CBP多幣別作業相關資訊與流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1270,6 +1268,10 @@
   </si>
   <si>
     <t>Meta</t>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2288,8 +2290,8 @@
   </sheetPr>
   <dimension ref="A2:N33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2481,7 +2483,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.75">
@@ -2525,7 +2527,7 @@
         <v>61</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>38</v>
@@ -2688,7 +2690,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
